--- a/data_voor_swing/aggregatietabellen/elzantw_elz.xlsx
+++ b/data_voor_swing/aggregatietabellen/elzantw_elz.xlsx
@@ -401,42 +401,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="0" outlineLevel="0">
-      <c r="A2" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A2" s="23">
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elz1</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:2" s="0" outlineLevel="0">
-      <c r="A3" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A3" s="23">
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>elz10</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:2" s="0" outlineLevel="0">
-      <c r="A4" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A4" s="23">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>elz11</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2" s="0" outlineLevel="0">
-      <c r="A5" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A5" s="23">
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elz12</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
@@ -446,7 +446,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>elz13</t>
+          <t>elz1</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>elz14</t>
+          <t>elz10</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elz15</t>
+          <t>elz11</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>elz16</t>
+          <t>elz12</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>elz17</t>
+          <t>elz13</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>elz18</t>
+          <t>elz14</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>elz19</t>
+          <t>elz15</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>elz2</t>
+          <t>elz16</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>elz20</t>
+          <t>elz17</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>elz21</t>
+          <t>elz18</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>elz22</t>
+          <t>elz19</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>elz23</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>elz24</t>
+          <t>elz20</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>elz25</t>
+          <t>elz21</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>elz26</t>
+          <t>elz22</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>elz27</t>
+          <t>elz23</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>elz28</t>
+          <t>elz24</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>elz29</t>
+          <t>elz25</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>elz3</t>
+          <t>elz26</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>elz30</t>
+          <t>elz27</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>elz31</t>
+          <t>elz28</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>elz32</t>
+          <t>elz29</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>elz33</t>
+          <t>elz3</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>elz34</t>
+          <t>elz30</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>elz35</t>
+          <t>elz31</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>elz36</t>
+          <t>elz32</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>elz37</t>
+          <t>elz33</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>elz38</t>
+          <t>elz34</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>elz39</t>
+          <t>elz35</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>elz4</t>
+          <t>elz36</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>elz40</t>
+          <t>elz37</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>elz41</t>
+          <t>elz38</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>elz42</t>
+          <t>elz39</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>elz43</t>
+          <t>elz4</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>elz44</t>
+          <t>elz40</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>elz45</t>
+          <t>elz41</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>elz46</t>
+          <t>elz42</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>elz47</t>
+          <t>elz43</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>elz48</t>
+          <t>elz44</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>elz49</t>
+          <t>elz45</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>elz5</t>
+          <t>elz46</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>elz50</t>
+          <t>elz47</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>elz51</t>
+          <t>elz48</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>elz52</t>
+          <t>elz49</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>elz53</t>
+          <t>elz5</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>elz54</t>
+          <t>elz50</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>elz55</t>
+          <t>elz51</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>elz56</t>
+          <t>elz52</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>elz57</t>
+          <t>elz53</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>elz6</t>
+          <t>elz54</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>elz7</t>
+          <t>elz55</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>elz8</t>
+          <t>elz56</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>elz9</t>
+          <t>elz57</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>elz91</t>
+          <t>elz6</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>elz92</t>
+          <t>elz7</t>
         </is>
       </c>
     </row>
@@ -996,47 +996,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>elz8</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="0" outlineLevel="0">
+      <c r="A62" s="1" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>elz9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="0" outlineLevel="0">
+      <c r="A63" s="1" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>elz91</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="0" outlineLevel="0">
+      <c r="A64" s="1" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>elz92</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="0" outlineLevel="0">
+      <c r="A65" s="1" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>elz99</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="0" outlineLevel="0">
-      <c r="A62" s="23">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>elz2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="0" outlineLevel="0">
-      <c r="A63" s="23">
-        <v>2</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>elz2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="0" outlineLevel="0">
-      <c r="A64" s="23">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>elz2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="0" outlineLevel="0">
-      <c r="A65" s="23">
-        <v>4</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>elz2</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/elzantw_elz.xlsx
+++ b/data_voor_swing/aggregatietabellen/elzantw_elz.xlsx
@@ -401,42 +401,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="0" outlineLevel="0">
-      <c r="A2" s="23">
-        <v>4</v>
+      <c r="A2" s="1" t="e">
+        <v>#NULL!</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elz2</t>
+          <t>elz1</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:2" s="0" outlineLevel="0">
-      <c r="A3" s="23">
-        <v>3</v>
+      <c r="A3" s="1" t="e">
+        <v>#NULL!</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>elz2</t>
+          <t>elz10</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:2" s="0" outlineLevel="0">
-      <c r="A4" s="23">
-        <v>2</v>
+      <c r="A4" s="1" t="e">
+        <v>#NULL!</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>elz2</t>
+          <t>elz11</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2" s="0" outlineLevel="0">
-      <c r="A5" s="23">
-        <v>1</v>
+      <c r="A5" s="1" t="e">
+        <v>#NULL!</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elz2</t>
+          <t>elz12</t>
         </is>
       </c>
     </row>
@@ -446,7 +446,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>elz1</t>
+          <t>elz13</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>elz10</t>
+          <t>elz14</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elz11</t>
+          <t>elz15</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>elz12</t>
+          <t>elz16</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>elz13</t>
+          <t>elz17</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>elz14</t>
+          <t>elz18</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>elz15</t>
+          <t>elz19</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>elz16</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>elz17</t>
+          <t>elz20</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>elz18</t>
+          <t>elz21</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>elz19</t>
+          <t>elz22</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>elz2</t>
+          <t>elz23</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>elz20</t>
+          <t>elz24</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>elz21</t>
+          <t>elz25</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>elz22</t>
+          <t>elz26</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>elz23</t>
+          <t>elz27</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>elz24</t>
+          <t>elz28</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>elz25</t>
+          <t>elz29</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>elz26</t>
+          <t>elz3</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>elz27</t>
+          <t>elz30</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>elz28</t>
+          <t>elz31</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>elz29</t>
+          <t>elz32</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>elz3</t>
+          <t>elz33</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>elz30</t>
+          <t>elz34</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>elz31</t>
+          <t>elz35</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>elz32</t>
+          <t>elz36</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>elz33</t>
+          <t>elz37</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>elz34</t>
+          <t>elz38</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>elz35</t>
+          <t>elz39</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>elz36</t>
+          <t>elz4</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>elz37</t>
+          <t>elz40</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>elz38</t>
+          <t>elz41</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>elz39</t>
+          <t>elz42</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>elz4</t>
+          <t>elz43</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>elz40</t>
+          <t>elz44</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>elz41</t>
+          <t>elz45</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>elz42</t>
+          <t>elz46</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>elz43</t>
+          <t>elz47</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>elz44</t>
+          <t>elz48</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>elz45</t>
+          <t>elz49</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>elz46</t>
+          <t>elz5</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>elz47</t>
+          <t>elz50</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>elz48</t>
+          <t>elz51</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>elz49</t>
+          <t>elz52</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>elz5</t>
+          <t>elz53</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>elz50</t>
+          <t>elz54</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>elz51</t>
+          <t>elz55</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>elz52</t>
+          <t>elz56</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>elz53</t>
+          <t>elz57</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>elz54</t>
+          <t>elz6</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>elz55</t>
+          <t>elz7</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>elz56</t>
+          <t>elz8</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>elz57</t>
+          <t>elz9</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>elz6</t>
+          <t>elz91</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>elz7</t>
+          <t>elz92</t>
         </is>
       </c>
     </row>
@@ -996,47 +996,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>elz8</t>
+          <t>elz99</t>
         </is>
       </c>
     </row>
     <row r="62" spans="1:2" s="0" outlineLevel="0">
-      <c r="A62" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A62" s="23">
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>elz9</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:2" s="0" outlineLevel="0">
-      <c r="A63" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A63" s="23">
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>elz91</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="64" spans="1:2" s="0" outlineLevel="0">
-      <c r="A64" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A64" s="23">
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>elz92</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="65" spans="1:2" s="0" outlineLevel="0">
-      <c r="A65" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="A65" s="23">
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>elz99</t>
+          <t>elz2</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/elzantw_elz.xlsx
+++ b/data_voor_swing/aggregatietabellen/elzantw_elz.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,23 +996,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>elz93</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="0" outlineLevel="0">
+      <c r="A62" s="1" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>elz99</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="0" outlineLevel="0">
-      <c r="A62" s="23">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>elz2</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1032,9 +1032,19 @@
     </row>
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" s="23">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>elz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="0" outlineLevel="0">
+      <c r="A66" s="23">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>elz2</t>
         </is>
